--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:25:29+00:00</t>
+    <t>2022-04-14T19:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:48:55+00:00</t>
+    <t>2022-04-14T20:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:08:42+00:00</t>
+    <t>2022-04-14T20:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:27:58+00:00</t>
+    <t>2022-04-14T20:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:44:08+00:00</t>
+    <t>2022-04-15T12:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T12:45:47+00:00</t>
+    <t>2022-04-15T14:01:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:01:58+00:00</t>
+    <t>2022-04-15T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:27:29+00:00</t>
+    <t>2022-04-15T14:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:45:08+00:00</t>
+    <t>2022-04-15T14:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:52:59+00:00</t>
+    <t>2022-04-15T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:34:51+00:00</t>
+    <t>2022-04-15T15:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:54:30+00:00</t>
+    <t>2022-04-15T17:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:11:07+00:00</t>
+    <t>2022-04-15T17:46:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:46:09+00:00</t>
+    <t>2022-04-15T19:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:11:05+00:00</t>
+    <t>2022-04-15T19:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:26:54+00:00</t>
+    <t>2022-04-18T13:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:39:40+00:00</t>
+    <t>2022-04-18T13:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:50:56+00:00</t>
+    <t>2022-04-18T13:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:55:40+00:00</t>
+    <t>2022-04-18T14:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:09:42+00:00</t>
+    <t>2022-04-18T14:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:34:01+00:00</t>
+    <t>2022-04-18T14:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:36:39+00:00</t>
+    <t>2022-04-18T14:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:49:47+00:00</t>
+    <t>2022-04-18T14:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:59:18+00:00</t>
+    <t>2022-04-19T16:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/settings</t>
+    <t>http://science37.com/fhir/StructureDefinition/settings</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:43:07+00:00</t>
+    <t>2022-04-19T16:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:57:06+00:00</t>
+    <t>2022-04-19T19:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-settings.xlsx
+++ b/branches/itemExtensions/StructureDefinition-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:13:12+00:00</t>
+    <t>2022-04-19T19:15:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
